--- a/biology/Zoologie/Coeliades_forestan/Coeliades_forestan.xlsx
+++ b/biology/Zoologie/Coeliades_forestan/Coeliades_forestan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coeliades forestan est un insecte lépidoptère de la famille des Hesperiidae, de la sous-famille des Coeliadinae et du genre Coeliades.
 </t>
@@ -511,14 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Coeliades forestan a été décrit par Stoll en 1782 sous le nom de Papilio forestan[1].
-Noms vernaculaires
-Il se nomme Striped Policeman en anglais[1].
-Sous-espèces
-Coeliades forestan forestan sur le continent africain.
-Coeliades forestan arbogastes (Guenee, 1863) à Madagascar et aux Mascareignes[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coeliades forestan a été décrit par Stoll en 1782 sous le nom de Papilio forestan.
+</t>
         </is>
       </c>
     </row>
@@ -543,14 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">C'est un papillon au gros corps rayé brun et blanc, orange sur le dessous, et aux ailes de forme triangulaire caractéristique des Hesperiidae, de couleur marron clair avec sur le dessous des postérieures une large bande médiane blanche bien visible et sur le dessous la partie basale des postérieures le plus souvent cachée, de couleur orange.
-Chenille
-La chenille est annelée de noir, orange et blanc avec une grosse tête orange.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se nomme Striped Policeman en anglais.
 </t>
         </is>
       </c>
@@ -576,15 +590,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il vole toute l'année mais en plus grand nombre de septembre à avril[2].
-Plantes hôtes
-Les plantes hôtes de sa chenille sont Canavalia maritima, Combretum bracteosum, Combretum apiculatum, Solanum auriculatum, Millettia sutherlandii, Quisqualis indica, Robinia pseudoacacia, Sphedamnocarpus rhamni, Terminalia catappa et Terminalia bentzoë[1],[3].
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Coeliades forestan forestan sur le continent africain.
+Coeliades forestan arbogastes (Guenee, 1863) à Madagascar et aux Mascareignes.</t>
         </is>
       </c>
     </row>
@@ -609,16 +627,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Écologie et distribution</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Coeliades forestan est présent dans tout le sud de l'Afrique, en particulier en Zambie, au Zimbabwe et au Botswana et Coeliades forestan arbogastes est présent à Madagascar, dans les Mascareignes (île Maurice, La Réunion et Rodrigues) et aux Seychelles[1],[3].
-Biotope
-Il réside à basse altitude où poussent ses plantes hôtes[3].
-Protection
-Coeliades forestan est noté LC sur la liste rouge des  rhopalocères de La Réunion[4].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un papillon au gros corps rayé brun et blanc, orange sur le dessous, et aux ailes de forme triangulaire caractéristique des Hesperiidae, de couleur marron clair avec sur le dessous des postérieures une large bande médiane blanche bien visible et sur le dessous la partie basale des postérieures le plus souvent cachée, de couleur orange.
 </t>
         </is>
       </c>
@@ -644,12 +660,228 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille est annelée de noir, orange et blanc avec une grosse tête orange.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Coeliades_forestan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coeliades_forestan</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole toute l'année mais en plus grand nombre de septembre à avril.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Coeliades_forestan</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coeliades_forestan</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont Canavalia maritima, Combretum bracteosum, Combretum apiculatum, Solanum auriculatum, Millettia sutherlandii, Quisqualis indica, Robinia pseudoacacia, Sphedamnocarpus rhamni, Terminalia catappa et Terminalia bentzoë,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Coeliades_forestan</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coeliades_forestan</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coeliades forestan est présent dans tout le sud de l'Afrique, en particulier en Zambie, au Zimbabwe et au Botswana et Coeliades forestan arbogastes est présent à Madagascar, dans les Mascareignes (île Maurice, La Réunion et Rodrigues) et aux Seychelles,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Coeliades_forestan</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coeliades_forestan</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside à basse altitude où poussent ses plantes hôtes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Coeliades_forestan</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coeliades_forestan</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coeliades forestan est noté LC sur la liste rouge des  rhopalocères de La Réunion.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Coeliades_forestan</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coeliades_forestan</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La république du Tchad a émis un timbre à son effigie en 2003[5].
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La république du Tchad a émis un timbre à son effigie en 2003.
 </t>
         </is>
       </c>
